--- a/资料/系统需导出的数据2015-9-1.xlsx
+++ b/资料/系统需导出的数据2015-9-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="480" windowWidth="7365" windowHeight="4830"/>
+    <workbookView xWindow="9375" yWindow="510" windowWidth="7365" windowHeight="4800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="16" r:id="rId1"/>
@@ -3031,7 +3031,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="856">
   <si>
     <t>序号</t>
   </si>
@@ -6227,6 +6227,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>签约对象</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同签订金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>合同生效日期</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -6239,15 +6247,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>合同签订金额</t>
+    <t>合同原件份数</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>经办部门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同原件份数</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6680,11 +6684,11 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7030,10 +7034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K2"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7048,39 +7052,159 @@
     <col min="9" max="9" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="72" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="67" t="s">
+    <row r="1" spans="1:11" s="72" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="69" t="s">
+      <c r="B1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D1" s="70" t="s">
+        <v>848</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>849</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>850</v>
+      </c>
+      <c r="G1" s="70" t="s">
+        <v>851</v>
+      </c>
+      <c r="H1" s="69" t="s">
+        <v>852</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>853</v>
+      </c>
+      <c r="J1" s="70" t="s">
+        <v>854</v>
+      </c>
+      <c r="K1" s="73" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <f t="shared" ref="A3:A21" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E2" s="71" t="s">
-        <v>851</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>848</v>
-      </c>
-      <c r="G2" s="70" t="s">
-        <v>849</v>
-      </c>
-      <c r="H2" s="69" t="s">
-        <v>850</v>
-      </c>
-      <c r="I2" s="70" t="s">
-        <v>853</v>
-      </c>
-      <c r="J2" s="70" t="s">
-        <v>852</v>
-      </c>
-      <c r="K2" s="74" t="s">
-        <v>854</v>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -7113,18 +7237,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="35" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>845</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
       <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:11" s="46" customFormat="1" ht="30" customHeight="1">
